--- a/data/trans_orig/P42B-Provincia-trans_orig.xlsx
+++ b/data/trans_orig/P42B-Provincia-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6259</v>
+        <v>6288</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.03395888610198367</v>
@@ -678,7 +678,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.109930864252328</v>
+        <v>0.1104476162943132</v>
       </c>
     </row>
     <row r="7">
@@ -695,19 +695,19 @@
         <v>41526</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>33776</v>
+        <v>33704</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>47701</v>
+        <v>47696</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7294022336300999</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.5932655168544659</v>
+        <v>0.5920036583929178</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.8378651266306354</v>
+        <v>0.8377731241577875</v>
       </c>
     </row>
     <row r="8">
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>7953</v>
+        <v>7744</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.04160860127892142</v>
@@ -736,7 +736,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1396977601115802</v>
+        <v>0.13602558204035</v>
       </c>
     </row>
     <row r="9">
@@ -753,19 +753,19 @@
         <v>11103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>5675</v>
+        <v>5135</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18659</v>
+        <v>18359</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.195030278988995</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.09968851082718834</v>
+        <v>0.09020334648558434</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.327736160444376</v>
+        <v>0.3224659178871725</v>
       </c>
     </row>
     <row r="10">
@@ -818,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>4983</v>
+        <v>5871</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01064494185664096</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05408744315878913</v>
+        <v>0.06371945359856485</v>
       </c>
     </row>
     <row r="12">
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7582</v>
+        <v>5831</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.02063568834699746</v>
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.08229400647499023</v>
+        <v>0.06328482014564897</v>
       </c>
     </row>
     <row r="13">
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6487</v>
+        <v>7367</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0230580549270275</v>
@@ -885,7 +885,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07041489403822372</v>
+        <v>0.07996488813507076</v>
       </c>
     </row>
     <row r="14">
@@ -902,19 +902,19 @@
         <v>77574</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>69747</v>
+        <v>70679</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>83484</v>
+        <v>83618</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8419898544643647</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7570319151384188</v>
+        <v>0.7671503920265735</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9061395979611109</v>
+        <v>0.9075874286006408</v>
       </c>
     </row>
     <row r="15">
@@ -952,19 +952,19 @@
         <v>9551</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>4774</v>
+        <v>4706</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16680</v>
+        <v>15658</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1036714604049693</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.05181672446536042</v>
+        <v>0.05107577797691599</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1810430807975262</v>
+        <v>0.169952681153132</v>
       </c>
     </row>
     <row r="17">
@@ -1038,7 +1038,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>6817</v>
+        <v>6751</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.04434131781458441</v>
@@ -1047,7 +1047,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.152791942649191</v>
+        <v>0.1513041300103246</v>
       </c>
     </row>
     <row r="20">
@@ -1064,19 +1064,19 @@
         <v>2941</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>931</v>
+        <v>903</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>8177</v>
+        <v>8612</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.06591626921789538</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02085822798414889</v>
+        <v>0.02023352691006627</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1832852932799998</v>
+        <v>0.1930201654538832</v>
       </c>
     </row>
     <row r="21">
@@ -1093,19 +1093,19 @@
         <v>34837</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>28288</v>
+        <v>28339</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>38908</v>
+        <v>38984</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.7808242326195649</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6340340273601188</v>
+        <v>0.635184153034988</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8720674653437399</v>
+        <v>0.8737734315634177</v>
       </c>
     </row>
     <row r="22">
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4648</v>
+        <v>4950</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02241677248131247</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1041787367552668</v>
+        <v>0.1109547582335645</v>
       </c>
     </row>
     <row r="23">
@@ -1151,19 +1151,19 @@
         <v>3859</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>995</v>
+        <v>1033</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>8719</v>
+        <v>9493</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.0865014078666428</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.02230156043640722</v>
+        <v>0.02315659054620403</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1954268828594768</v>
+        <v>0.212775625474293</v>
       </c>
     </row>
     <row r="24">
@@ -1234,19 +1234,19 @@
         <v>2688</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>7420</v>
+        <v>7366</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03175085498895351</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01002436518777161</v>
+        <v>0.01004544168344015</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.08762928772492605</v>
+        <v>0.08699555025763776</v>
       </c>
     </row>
     <row r="27">
@@ -1263,19 +1263,19 @@
         <v>2766</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>6858</v>
+        <v>7914</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03266324802589245</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01011975497544979</v>
+        <v>0.0101521310228276</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.08099648912164935</v>
+        <v>0.09346804631028569</v>
       </c>
     </row>
     <row r="28">
@@ -1292,19 +1292,19 @@
         <v>63820</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>55308</v>
+        <v>55696</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>70898</v>
+        <v>71192</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7537174921046593</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6531979931852746</v>
+        <v>0.6577818226386114</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.8373162005523934</v>
+        <v>0.8407849528184218</v>
       </c>
     </row>
     <row r="29">
@@ -1324,7 +1324,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>9403</v>
+        <v>8876</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02984022994869543</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1110559828787408</v>
+        <v>0.1048299361386714</v>
       </c>
     </row>
     <row r="30">
@@ -1350,19 +1350,19 @@
         <v>12873</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>7315</v>
+        <v>7836</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>20351</v>
+        <v>21024</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1520281749317993</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.08638878146836905</v>
+        <v>0.09254066014007538</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2403537972771664</v>
+        <v>0.248291351339636</v>
       </c>
     </row>
     <row r="31">
@@ -1436,7 +1436,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="5" t="n">
-        <v>5749</v>
+        <v>5708</v>
       </c>
       <c r="G33" s="6" t="n">
         <v>0.03479225452636223</v>
@@ -1445,7 +1445,7 @@
         <v>0</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.1745691934581118</v>
+        <v>0.1733359251296153</v>
       </c>
     </row>
     <row r="34">
@@ -1465,7 +1465,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>6826</v>
+        <v>5959</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.0579450995364834</v>
@@ -1474,7 +1474,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.207299919483988</v>
+        <v>0.1809688956989261</v>
       </c>
     </row>
     <row r="35">
@@ -1491,19 +1491,19 @@
         <v>23936</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>17527</v>
+        <v>18163</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>28429</v>
+        <v>28793</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7268800325860614</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5322375247951768</v>
+        <v>0.5515752690370848</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8633123585472454</v>
+        <v>0.874370766266383</v>
       </c>
     </row>
     <row r="36">
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6270</v>
+        <v>6247</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.06193212933892221</v>
@@ -1532,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.1904106666947574</v>
+        <v>0.1897022487205687</v>
       </c>
     </row>
     <row r="37">
@@ -1549,19 +1549,19 @@
         <v>3901</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>986</v>
+        <v>970</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>8764</v>
+        <v>9076</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1184504840121708</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.02992907658243049</v>
+        <v>0.02944835534507494</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2661410435207903</v>
+        <v>0.2756035991077287</v>
       </c>
     </row>
     <row r="38">
@@ -1635,7 +1635,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4386</v>
+        <v>4744</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01839480381090292</v>
@@ -1644,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.07900295394804846</v>
+        <v>0.08545141760927658</v>
       </c>
     </row>
     <row r="41">
@@ -1664,7 +1664,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>6168</v>
+        <v>6277</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03682529158397341</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.1111054087021688</v>
+        <v>0.1130541634220047</v>
       </c>
     </row>
     <row r="42">
@@ -1690,19 +1690,19 @@
         <v>44216</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>37620</v>
+        <v>37413</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>49561</v>
+        <v>49419</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7964136557144071</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6776017100231977</v>
+        <v>0.6738798426774887</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8926878897073131</v>
+        <v>0.8901291181458293</v>
       </c>
     </row>
     <row r="43">
@@ -1719,19 +1719,19 @@
         <v>2940</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>855</v>
+        <v>873</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>8072</v>
+        <v>8031</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.05295341458684056</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.01539766629585284</v>
+        <v>0.01572455459981432</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1453957086422649</v>
+        <v>0.144657023623152</v>
       </c>
     </row>
     <row r="44">
@@ -1748,19 +1748,19 @@
         <v>5297</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>2055</v>
+        <v>2040</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>11388</v>
+        <v>11603</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.09541283430387594</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.03701675276521278</v>
+        <v>0.03673772608845921</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2051163769673756</v>
+        <v>0.2089953069991793</v>
       </c>
     </row>
     <row r="45">
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>5456</v>
+        <v>5353</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.007409047073615841</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04143489630632199</v>
+        <v>0.04064759459553046</v>
       </c>
     </row>
     <row r="47">
@@ -1839,19 +1839,19 @@
         <v>2804</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>890</v>
+        <v>881</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>8335</v>
+        <v>7680</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.0212930741216005</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.006758231330973787</v>
+        <v>0.006686826097373707</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.06329985583818157</v>
+        <v>0.05832210504120942</v>
       </c>
     </row>
     <row r="48">
@@ -1868,19 +1868,19 @@
         <v>8535</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4566</v>
+        <v>3903</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>16274</v>
+        <v>15124</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.06481224704569601</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.03467132742282904</v>
+        <v>0.0296415027529806</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.1235821995215724</v>
+        <v>0.114853902987955</v>
       </c>
     </row>
     <row r="49">
@@ -1897,19 +1897,19 @@
         <v>90346</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>78696</v>
+        <v>78361</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>99681</v>
+        <v>100203</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.6860899533450637</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.5976210970939189</v>
+        <v>0.5950777787619774</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.7569827167200133</v>
+        <v>0.7609433842790556</v>
       </c>
     </row>
     <row r="50">
@@ -1926,19 +1926,19 @@
         <v>9948</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>4456</v>
+        <v>5114</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>17846</v>
+        <v>18377</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.07554367422603572</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.03384014518855233</v>
+        <v>0.03883818835324743</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.13552011076966</v>
+        <v>0.1395535324604878</v>
       </c>
     </row>
     <row r="51">
@@ -1955,19 +1955,19 @@
         <v>19074</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>12701</v>
+        <v>12042</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>28686</v>
+        <v>27934</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1448520041879882</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.09645268069203973</v>
+        <v>0.0914448535617607</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.2178424141203784</v>
+        <v>0.21213194728551</v>
       </c>
     </row>
     <row r="52">
@@ -2020,7 +2020,7 @@
         <v>0</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>3946</v>
+        <v>4456</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.005555475041416962</v>
@@ -2029,7 +2029,7 @@
         <v>0</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02528815008097508</v>
+        <v>0.02855955527887171</v>
       </c>
     </row>
     <row r="54">
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7935</v>
+        <v>6955</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.01471938723003876</v>
@@ -2058,7 +2058,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.05085699555290549</v>
+        <v>0.04457759460114361</v>
       </c>
     </row>
     <row r="55">
@@ -2075,19 +2075,19 @@
         <v>8372</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>3900</v>
+        <v>3647</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>15302</v>
+        <v>15541</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.05366033522918207</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.02499568186431839</v>
+        <v>0.02337298753080339</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.09807546736404542</v>
+        <v>0.0996042315562644</v>
       </c>
     </row>
     <row r="56">
@@ -2104,19 +2104,19 @@
         <v>108056</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>95097</v>
+        <v>96871</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>119641</v>
+        <v>119499</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.692545633232693</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6094929234701257</v>
+        <v>0.6208594052834706</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7667968422545504</v>
+        <v>0.7658871969748402</v>
       </c>
     </row>
     <row r="57">
@@ -2133,19 +2133,19 @@
         <v>9997</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>4543</v>
+        <v>5112</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>18550</v>
+        <v>19186</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.06407118992816258</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.02911874231381361</v>
+        <v>0.03276430080548188</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1188910986091935</v>
+        <v>0.1229647370735303</v>
       </c>
     </row>
     <row r="58">
@@ -2162,19 +2162,19 @@
         <v>26438</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>17986</v>
+        <v>18572</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>38484</v>
+        <v>37376</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1694479793385066</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1152735311909425</v>
+        <v>0.119028603109177</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2466481170185656</v>
+        <v>0.2395511725438851</v>
       </c>
     </row>
     <row r="59">
@@ -2224,19 +2224,19 @@
         <v>2823</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>819</v>
+        <v>862</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>7877</v>
+        <v>7507</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.004313424273206853</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.00125095378895103</v>
+        <v>0.001316901309908745</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.01203513665132991</v>
+        <v>0.01146883769799683</v>
       </c>
     </row>
     <row r="61">
@@ -2253,19 +2253,19 @@
         <v>13836</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>7911</v>
+        <v>7677</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>22841</v>
+        <v>22569</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.02113866297867358</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.01208703635656748</v>
+        <v>0.01173007034512648</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.03489811981071405</v>
+        <v>0.03448182379171579</v>
       </c>
     </row>
     <row r="62">
@@ -2282,19 +2282,19 @@
         <v>30624</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>21131</v>
+        <v>20844</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>42034</v>
+        <v>42885</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.04678920067041029</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.03228555573927464</v>
+        <v>0.03184599675607359</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.0642211514801516</v>
+        <v>0.06552147352254074</v>
       </c>
     </row>
     <row r="63">
@@ -2311,19 +2311,19 @@
         <v>484313</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>462446</v>
+        <v>462618</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>505007</v>
+        <v>505244</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.7399587140533042</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.7065489983117857</v>
+        <v>0.7068129384815227</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.7715771859387025</v>
+        <v>0.7719382072008186</v>
       </c>
     </row>
     <row r="64">
@@ -2340,19 +2340,19 @@
         <v>30820</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>20797</v>
+        <v>20530</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>45135</v>
+        <v>43487</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.04708793335115519</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.03177411724751907</v>
+        <v>0.03136675397059274</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.06896007645694004</v>
+        <v>0.0664424958447261</v>
       </c>
     </row>
     <row r="65">
@@ -2369,19 +2369,19 @@
         <v>92098</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>76213</v>
+        <v>75508</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>112739</v>
+        <v>110385</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.14071206467325</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.116442139036623</v>
+        <v>0.1153647474304056</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1722483442965661</v>
+        <v>0.1686526087316564</v>
       </c>
     </row>
     <row r="66">
@@ -2553,19 +2553,19 @@
         <v>10132</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5030</v>
+        <v>5124</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17398</v>
+        <v>17353</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04371147457087071</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02169906312478514</v>
+        <v>0.02210469661885089</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0750594027433206</v>
+        <v>0.07486567529997397</v>
       </c>
     </row>
     <row r="5">
@@ -2585,7 +2585,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7351</v>
+        <v>7886</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.009707966444085031</v>
@@ -2594,7 +2594,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.03171674281462027</v>
+        <v>0.03402370514311102</v>
       </c>
     </row>
     <row r="6">
@@ -2611,19 +2611,19 @@
         <v>9409</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4454</v>
+        <v>4225</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>18069</v>
+        <v>18003</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.04059279776531104</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.01921388199598979</v>
+        <v>0.01822991664402226</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.07795720636782523</v>
+        <v>0.07767142092309533</v>
       </c>
     </row>
     <row r="7">
@@ -2640,19 +2640,19 @@
         <v>167900</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>152620</v>
+        <v>153521</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180743</v>
+        <v>182418</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7243755444751152</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6584500418001608</v>
+        <v>0.6623410421223435</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7797860510538871</v>
+        <v>0.7870122804603986</v>
       </c>
     </row>
     <row r="8">
@@ -2669,19 +2669,19 @@
         <v>7425</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2858</v>
+        <v>3220</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>15169</v>
+        <v>15988</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03203393528877917</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01232838001511088</v>
+        <v>0.01389372010522592</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.06544333940622148</v>
+        <v>0.06897668072397588</v>
       </c>
     </row>
     <row r="9">
@@ -2698,19 +2698,19 @@
         <v>34670</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>24268</v>
+        <v>24318</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>46556</v>
+        <v>47220</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1495782814558389</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.104698489056766</v>
+        <v>0.1049155136344572</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.200856983778344</v>
+        <v>0.2037224175382542</v>
       </c>
     </row>
     <row r="10">
@@ -2760,19 +2760,19 @@
         <v>7008</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>3008</v>
+        <v>3009</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>14096</v>
+        <v>13927</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01609380282250456</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.006908437268722317</v>
+        <v>0.006910956979907438</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03237080093113521</v>
+        <v>0.03198219173789808</v>
       </c>
     </row>
     <row r="12">
@@ -2792,7 +2792,7 @@
         <v>0</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8309</v>
+        <v>8287</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.005145237207337292</v>
@@ -2801,7 +2801,7 @@
         <v>0</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01908111216817469</v>
+        <v>0.019029484963428</v>
       </c>
     </row>
     <row r="13">
@@ -2818,19 +2818,19 @@
         <v>4084</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>1014</v>
+        <v>1005</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>9994</v>
+        <v>10135</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.009379264227467101</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.002328637695601071</v>
+        <v>0.002307872187758211</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02294946437605231</v>
+        <v>0.0232739684262726</v>
       </c>
     </row>
     <row r="14">
@@ -2847,19 +2847,19 @@
         <v>354152</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>335643</v>
+        <v>336763</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>371346</v>
+        <v>370399</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8132790289102589</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7707734597481603</v>
+        <v>0.7733456818167687</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8527623595097842</v>
+        <v>0.8505882479927691</v>
       </c>
     </row>
     <row r="15">
@@ -2876,19 +2876,19 @@
         <v>14203</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>7329</v>
+        <v>8085</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>23240</v>
+        <v>22825</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.03261531588272502</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01683134340912867</v>
+        <v>0.01856760001039912</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05336862381976545</v>
+        <v>0.05241653183923648</v>
       </c>
     </row>
     <row r="16">
@@ -2905,19 +2905,19 @@
         <v>53774</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>40560</v>
+        <v>40948</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>67928</v>
+        <v>70434</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.123487350949707</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.09314308428380204</v>
+        <v>0.09403245130541099</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1559909774775314</v>
+        <v>0.161746476490189</v>
       </c>
     </row>
     <row r="17">
@@ -2970,16 +2970,16 @@
         <v>988</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8853</v>
+        <v>9393</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.01201075782047516</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.003688491567019775</v>
+        <v>0.003688794764240712</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.03306086044649265</v>
+        <v>0.03507531440414973</v>
       </c>
     </row>
     <row r="19">
@@ -2999,7 +2999,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>4378</v>
+        <v>5027</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.003673568025423081</v>
@@ -3008,7 +3008,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.01635008725541414</v>
+        <v>0.01877346451633005</v>
       </c>
     </row>
     <row r="20">
@@ -3028,7 +3028,7 @@
         <v>0</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>6850</v>
+        <v>7015</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.007375938343670589</v>
@@ -3037,7 +3037,7 @@
         <v>0</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.02557817175701514</v>
+        <v>0.02619481818766718</v>
       </c>
     </row>
     <row r="21">
@@ -3054,19 +3054,19 @@
         <v>192172</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>176231</v>
+        <v>175324</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>207777</v>
+        <v>207270</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.717629244339095</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.6581020576834226</v>
+        <v>0.6547127705244781</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.77590468124773</v>
+        <v>0.7740095018824351</v>
       </c>
     </row>
     <row r="22">
@@ -3083,19 +3083,19 @@
         <v>15292</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>8826</v>
+        <v>8496</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25900</v>
+        <v>25716</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05710558104809643</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03295720008722114</v>
+        <v>0.03172755900378359</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.09671809557443312</v>
+        <v>0.09603317455568373</v>
       </c>
     </row>
     <row r="23">
@@ -3112,19 +3112,19 @@
         <v>54148</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>40697</v>
+        <v>40583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>68227</v>
+        <v>69793</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2022049104232397</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.151975534314593</v>
+        <v>0.1515488751715111</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2547791956768458</v>
+        <v>0.2606269805439556</v>
       </c>
     </row>
     <row r="24">
@@ -3177,7 +3177,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>6528</v>
+        <v>6567</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.007092739122984926</v>
@@ -3186,7 +3186,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.02257661665917636</v>
+        <v>0.02271350346224746</v>
       </c>
     </row>
     <row r="26">
@@ -3203,19 +3203,19 @@
         <v>11109</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>5489</v>
+        <v>5905</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>19571</v>
+        <v>19801</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03842013180492383</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01898401501064265</v>
+        <v>0.02042173689463973</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06768736131972777</v>
+        <v>0.06848389859978</v>
       </c>
     </row>
     <row r="27">
@@ -3232,19 +3232,19 @@
         <v>2793</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>898</v>
+        <v>886</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>7450</v>
+        <v>7139</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.009659455123356508</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.003106734071451558</v>
+        <v>0.00306400419129212</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.02576594888596761</v>
+        <v>0.02469148458094515</v>
       </c>
     </row>
     <row r="28">
@@ -3261,19 +3261,19 @@
         <v>184154</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>166473</v>
+        <v>168079</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>199843</v>
+        <v>201631</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.6369169828498032</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5757642225958746</v>
+        <v>0.5813180186125144</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6911777116850208</v>
+        <v>0.6973629945398441</v>
       </c>
     </row>
     <row r="29">
@@ -3290,19 +3290,19 @@
         <v>6379</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2767</v>
+        <v>2760</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>13673</v>
+        <v>13655</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02206372317992957</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.009569582325722092</v>
+        <v>0.009544403762479439</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.04729120750987444</v>
+        <v>0.04722791503392536</v>
       </c>
     </row>
     <row r="30">
@@ -3319,19 +3319,19 @@
         <v>82648</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>68468</v>
+        <v>67810</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>98041</v>
+        <v>99185</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.285846967919002</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2368024379469547</v>
+        <v>0.2345289462523025</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3390835882126244</v>
+        <v>0.3430415058077185</v>
       </c>
     </row>
     <row r="31">
@@ -3444,19 +3444,19 @@
         <v>134112</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>122669</v>
+        <v>122780</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>142925</v>
+        <v>143709</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.7964011953453146</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.7284531350230748</v>
+        <v>0.7291110696695208</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.8487391769063541</v>
+        <v>0.8533934696056925</v>
       </c>
     </row>
     <row r="36">
@@ -3473,19 +3473,19 @@
         <v>6815</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2885</v>
+        <v>2884</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>12884</v>
+        <v>13084</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.04046938560934563</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01713483639999186</v>
+        <v>0.0171268280387435</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.0765067423881414</v>
+        <v>0.07769560952056974</v>
       </c>
     </row>
     <row r="37">
@@ -3502,19 +3502,19 @@
         <v>27471</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>19021</v>
+        <v>19048</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>38798</v>
+        <v>38371</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1631294190453398</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1129550988004555</v>
+        <v>0.1131148019338734</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2303945972964955</v>
+        <v>0.2278615127330822</v>
       </c>
     </row>
     <row r="38">
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>5872</v>
+        <v>4935</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.004555328585554013</v>
@@ -3576,7 +3576,7 @@
         <v>0</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.02733663179761409</v>
+        <v>0.02297442046761512</v>
       </c>
     </row>
     <row r="40">
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>5356</v>
+        <v>6390</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004917747028848004</v>
@@ -3605,7 +3605,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02493689442123418</v>
+        <v>0.02975149131760361</v>
       </c>
     </row>
     <row r="41">
@@ -3622,19 +3622,19 @@
         <v>7198</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>3137</v>
+        <v>3089</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>13383</v>
+        <v>14203</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.0335128858048179</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.01460421746376379</v>
+        <v>0.01438313048047448</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.06230577689005161</v>
+        <v>0.06612279130683903</v>
       </c>
     </row>
     <row r="42">
@@ -3651,19 +3651,19 @@
         <v>160404</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>146988</v>
+        <v>147195</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>171578</v>
+        <v>172278</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7467895868386639</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.6843282479918029</v>
+        <v>0.6852926881112619</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.798809701520137</v>
+        <v>0.8020681652031277</v>
       </c>
     </row>
     <row r="43">
@@ -3680,19 +3680,19 @@
         <v>5650</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1936</v>
+        <v>1929</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>12970</v>
+        <v>12471</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02630233961566287</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.00901418425270032</v>
+        <v>0.008979485745240578</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.06038383461204457</v>
+        <v>0.0580598750683819</v>
       </c>
     </row>
     <row r="44">
@@ -3709,19 +3709,19 @@
         <v>39505</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>29483</v>
+        <v>28982</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>51867</v>
+        <v>51531</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1839221121264533</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1372633120535236</v>
+        <v>0.1349328006760128</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2414738901143466</v>
+        <v>0.2399096117985127</v>
       </c>
     </row>
     <row r="45">
@@ -3771,19 +3771,19 @@
         <v>13096</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>6861</v>
+        <v>6836</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23330</v>
+        <v>22149</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02340760450914863</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.0122623007716015</v>
+        <v>0.0122181523579641</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04169960595921774</v>
+        <v>0.03958858375337852</v>
       </c>
     </row>
     <row r="47">
@@ -3800,19 +3800,19 @@
         <v>4179</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>1090</v>
+        <v>996</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>10444</v>
+        <v>9736</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.007469611320844881</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.001948404547933466</v>
+        <v>0.001780614435834815</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01866641262646511</v>
+        <v>0.01740125312042211</v>
       </c>
     </row>
     <row r="48">
@@ -3829,19 +3829,19 @@
         <v>9255</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>4109</v>
+        <v>4104</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>18535</v>
+        <v>18716</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01654211248284317</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.007344087621219841</v>
+        <v>0.00733508752114628</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.03312910679876813</v>
+        <v>0.03345197541593343</v>
       </c>
     </row>
     <row r="49">
@@ -3858,19 +3858,19 @@
         <v>422217</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>401463</v>
+        <v>398815</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>442386</v>
+        <v>441551</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.7546470407559021</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7175528114026137</v>
+        <v>0.7128201766744321</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.7906973267388269</v>
+        <v>0.7892036864175</v>
       </c>
     </row>
     <row r="50">
@@ -3887,19 +3887,19 @@
         <v>22067</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>14087</v>
+        <v>14411</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>32037</v>
+        <v>32594</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03944096233822024</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02517909065802359</v>
+        <v>0.02575708348362103</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.05726165332160345</v>
+        <v>0.05825626331718693</v>
       </c>
     </row>
     <row r="51">
@@ -3916,19 +3916,19 @@
         <v>88675</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>72747</v>
+        <v>72587</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>108303</v>
+        <v>108162</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.158492668593041</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.1300244653914059</v>
+        <v>0.129737965465288</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.193575337469461</v>
+        <v>0.1933237224801927</v>
       </c>
     </row>
     <row r="52">
@@ -3978,19 +3978,19 @@
         <v>7248</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2178</v>
+        <v>2207</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>15181</v>
+        <v>15417</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01264041838356653</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.003797598821039057</v>
+        <v>0.003849030778546788</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02647427577691653</v>
+        <v>0.02688577048382617</v>
       </c>
     </row>
     <row r="54">
@@ -4010,16 +4010,16 @@
         <v>966</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>8532</v>
+        <v>8885</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.005714812668727617</v>
       </c>
       <c r="H54" s="6" t="n">
-        <v>0.001683938068257422</v>
+        <v>0.001684293405766534</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01487946457704387</v>
+        <v>0.01549434548048108</v>
       </c>
     </row>
     <row r="55">
@@ -4036,19 +4036,19 @@
         <v>8254</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>3200</v>
+        <v>3199</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>17723</v>
+        <v>17141</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.01439475767634083</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.005580951979655155</v>
+        <v>0.005578840145782122</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.03090793038306003</v>
+        <v>0.02989231258971863</v>
       </c>
     </row>
     <row r="56">
@@ -4065,19 +4065,19 @@
         <v>360614</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>334817</v>
+        <v>337032</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>382417</v>
+        <v>383895</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.6288833911073579</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5838956996035642</v>
+        <v>0.5877578719718269</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6669056184063662</v>
+        <v>0.6694829445004949</v>
       </c>
     </row>
     <row r="57">
@@ -4094,19 +4094,19 @@
         <v>83855</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>66270</v>
+        <v>68267</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>101055</v>
+        <v>101231</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.146236975370045</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.1155689675329788</v>
+        <v>0.1190519355427749</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1762318023912445</v>
+        <v>0.1765382702752271</v>
       </c>
     </row>
     <row r="58">
@@ -4123,19 +4123,19 @@
         <v>110171</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>91908</v>
+        <v>91135</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>131848</v>
+        <v>129988</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1921296447939621</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1602798505596979</v>
+        <v>0.1589322557486169</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2299328159257582</v>
+        <v>0.2266884912367753</v>
       </c>
     </row>
     <row r="59">
@@ -4185,19 +4185,19 @@
         <v>43730</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>32517</v>
+        <v>32006</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>59571</v>
+        <v>58981</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.01595830772500044</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.01186625320876025</v>
+        <v>0.01167985260683401</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.02173927123178709</v>
+        <v>0.02152377125987705</v>
       </c>
     </row>
     <row r="61">
@@ -4214,19 +4214,19 @@
         <v>25095</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>16460</v>
+        <v>16132</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>38773</v>
+        <v>37223</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.009158039594644772</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.006006745221003048</v>
+        <v>0.005887027834408607</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.01414924553842938</v>
+        <v>0.01358354875561856</v>
       </c>
     </row>
     <row r="62">
@@ -4243,19 +4243,19 @@
         <v>42969</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>31028</v>
+        <v>31572</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>57900</v>
+        <v>59057</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.01568054506323587</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.01132299374003232</v>
+        <v>0.0115216227372185</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.02112923695190601</v>
+        <v>0.02155172032821458</v>
       </c>
     </row>
     <row r="63">
@@ -4272,19 +4272,19 @@
         <v>1975725</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>1920727</v>
+        <v>1928154</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>2018752</v>
+        <v>2026797</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.720997399477816</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.7009270458274339</v>
+        <v>0.7036373341166816</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.7366989372583678</v>
+        <v>0.7396347213817189</v>
       </c>
     </row>
     <row r="64">
@@ -4301,19 +4301,19 @@
         <v>161686</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>137350</v>
+        <v>136391</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>189751</v>
+        <v>189757</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.05900362928924896</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.05012269316156184</v>
+        <v>0.04977278661324381</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.06924541316351325</v>
+        <v>0.06924756916106013</v>
       </c>
     </row>
     <row r="65">
@@ -4330,19 +4330,19 @@
         <v>491062</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>451774</v>
+        <v>448990</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>535451</v>
+        <v>529607</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.179202078850054</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.1648649263421489</v>
+        <v>0.1638491369150231</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1954009433026666</v>
+        <v>0.1932685119954938</v>
       </c>
     </row>
     <row r="66">
@@ -4514,19 +4514,19 @@
         <v>6968</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2806</v>
+        <v>2784</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15211</v>
+        <v>15264</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03059324485732941</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01231805358529956</v>
+        <v>0.0122231290674258</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0667825861207814</v>
+        <v>0.06701568066972977</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         <v>2909</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>917</v>
+        <v>913</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7649</v>
+        <v>7893</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01277188926176401</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.004026085038081414</v>
+        <v>0.004008018600564948</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.0335815429304279</v>
+        <v>0.03465267721576781</v>
       </c>
     </row>
     <row r="6">
@@ -4572,19 +4572,19 @@
         <v>4101</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>962</v>
+        <v>943</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>10060</v>
+        <v>10209</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.01800368146746626</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.004225065542843676</v>
+        <v>0.004139501428373016</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.04416621800370493</v>
+        <v>0.04482086859898668</v>
       </c>
     </row>
     <row r="7">
@@ -4601,19 +4601,19 @@
         <v>164181</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>148780</v>
+        <v>150890</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>177354</v>
+        <v>177674</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.7208210916846131</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.6532008701684603</v>
+        <v>0.6624643386527126</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.7786542404618172</v>
+        <v>0.7800581262499106</v>
       </c>
     </row>
     <row r="8">
@@ -4630,19 +4630,19 @@
         <v>13148</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>7391</v>
+        <v>7554</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>21019</v>
+        <v>22042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.05772657036650763</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.03244983284532908</v>
+        <v>0.03316419249069646</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.09228264515899368</v>
+        <v>0.09677479278244645</v>
       </c>
     </row>
     <row r="9">
@@ -4659,19 +4659,19 @@
         <v>36462</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>26414</v>
+        <v>26178</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49014</v>
+        <v>47212</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1600835223623196</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1159672212511555</v>
+        <v>0.1149335402949417</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2151922000130952</v>
+        <v>0.2072781453999856</v>
       </c>
     </row>
     <row r="10">
@@ -4721,19 +4721,19 @@
         <v>6197</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2177</v>
+        <v>2896</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>12556</v>
+        <v>12427</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01548178636730527</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005439622128294095</v>
+        <v>0.007235739905740907</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.031366829803879</v>
+        <v>0.03104310093685334</v>
       </c>
     </row>
     <row r="12">
@@ -4750,19 +4750,19 @@
         <v>3931</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>9787</v>
+        <v>9816</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.009819464023891373</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.00245183997085725</v>
+        <v>0.002453425156325734</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.02444920194822919</v>
+        <v>0.02452144232418048</v>
       </c>
     </row>
     <row r="13">
@@ -4779,19 +4779,19 @@
         <v>13968</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8026</v>
+        <v>7390</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23127</v>
+        <v>23116</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.03489322741690414</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.02005055310439765</v>
+        <v>0.0184604389681375</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05777435189727215</v>
+        <v>0.0577454664099663</v>
       </c>
     </row>
     <row r="14">
@@ -4808,19 +4808,19 @@
         <v>341847</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>325870</v>
+        <v>325395</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>354435</v>
+        <v>354123</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.8539722361079849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8140614586509882</v>
+        <v>0.8128735837451657</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8854200815854475</v>
+        <v>0.8846401753778048</v>
       </c>
     </row>
     <row r="15">
@@ -4837,19 +4837,19 @@
         <v>10910</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5930</v>
+        <v>4969</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>18905</v>
+        <v>18661</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.02725352434066198</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01481362857438922</v>
+        <v>0.01241390668692787</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.04722700928031543</v>
+        <v>0.04661625425906019</v>
       </c>
     </row>
     <row r="16">
@@ -4866,19 +4866,19 @@
         <v>23450</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>16249</v>
+        <v>15209</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33809</v>
+        <v>34007</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.05857976174325236</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.04059125490549463</v>
+        <v>0.0379932562828041</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.08445984793406294</v>
+        <v>0.08495405519144959</v>
       </c>
     </row>
     <row r="17">
@@ -4928,19 +4928,19 @@
         <v>13757</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7980</v>
+        <v>8587</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>22624</v>
+        <v>23548</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.05013129389591071</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02907904968998074</v>
+        <v>0.03129183158167895</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08243915295904493</v>
+        <v>0.0858065702409132</v>
       </c>
     </row>
     <row r="19">
@@ -4978,19 +4978,19 @@
         <v>8284</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>3935</v>
+        <v>3937</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>15818</v>
+        <v>16571</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03018812047033932</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01433787619158237</v>
+        <v>0.01434727185531575</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05764117450151154</v>
+        <v>0.06038353480578901</v>
       </c>
     </row>
     <row r="21">
@@ -5007,19 +5007,19 @@
         <v>216684</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>202544</v>
+        <v>202511</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>229325</v>
+        <v>229685</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.789581276506694</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.7380566810390041</v>
+        <v>0.7379348476648655</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.8356448307920894</v>
+        <v>0.8369565167951873</v>
       </c>
     </row>
     <row r="22">
@@ -5036,19 +5036,19 @@
         <v>7907</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3578</v>
+        <v>3580</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>14002</v>
+        <v>14552</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02881344200247511</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01303633525995781</v>
+        <v>0.01304625637830911</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.05102177415793129</v>
+        <v>0.0530251337533914</v>
       </c>
     </row>
     <row r="23">
@@ -5065,19 +5065,19 @@
         <v>27796</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>19038</v>
+        <v>18085</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>38385</v>
+        <v>37933</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1012858671245809</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.06937320456633199</v>
+        <v>0.06590084604108544</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1398710474528953</v>
+        <v>0.1382245178505864</v>
       </c>
     </row>
     <row r="24">
@@ -5127,19 +5127,19 @@
         <v>13019</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>6696</v>
+        <v>7052</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>22455</v>
+        <v>23315</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04609160833902132</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.02370851070413098</v>
+        <v>0.02496602523499372</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07950087306072026</v>
+        <v>0.08254585409748563</v>
       </c>
     </row>
     <row r="26">
@@ -5156,19 +5156,19 @@
         <v>4129</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>9547</v>
+        <v>9548</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01461875511021669</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.003441396947140947</v>
+        <v>0.003460138256616297</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03379950008598333</v>
+        <v>0.03380281497362717</v>
       </c>
     </row>
     <row r="27">
@@ -5185,19 +5185,19 @@
         <v>3119</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>889</v>
+        <v>893</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>8492</v>
+        <v>9581</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.01104360030082645</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.00314870763003969</v>
+        <v>0.003160591774746503</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.03006622685606065</v>
+        <v>0.0339222191417267</v>
       </c>
     </row>
     <row r="28">
@@ -5214,19 +5214,19 @@
         <v>200196</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>183469</v>
+        <v>182085</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>215831</v>
+        <v>214750</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.7087830785030087</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.6495598762617255</v>
+        <v>0.6446602899419043</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.7641360484538542</v>
+        <v>0.7603080490408163</v>
       </c>
     </row>
     <row r="29">
@@ -5243,19 +5243,19 @@
         <v>7204</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>2873</v>
+        <v>3350</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>14298</v>
+        <v>14367</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.02550488201130556</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01017164931693193</v>
+        <v>0.01186014811254876</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.0506220346918497</v>
+        <v>0.05086464710690528</v>
       </c>
     </row>
     <row r="30">
@@ -5272,19 +5272,19 @@
         <v>54784</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>42586</v>
+        <v>41929</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>71603</v>
+        <v>69553</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.1939580757356212</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.150773441138822</v>
+        <v>0.1484484337032523</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2535043267029934</v>
+        <v>0.2462472222258524</v>
       </c>
     </row>
     <row r="31">
@@ -5337,7 +5337,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>6982</v>
+        <v>6123</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01002813791585515</v>
@@ -5346,7 +5346,7 @@
         <v>0</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.04033520213858974</v>
+        <v>0.03537319889649894</v>
       </c>
     </row>
     <row r="33">
@@ -5384,19 +5384,19 @@
         <v>5636</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>2191</v>
+        <v>2128</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>12423</v>
+        <v>12426</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.03256295346633813</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01265679410890582</v>
+        <v>0.01229664527196905</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07177166264146848</v>
+        <v>0.07178559282009012</v>
       </c>
     </row>
     <row r="35">
@@ -5413,19 +5413,19 @@
         <v>111813</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>98627</v>
+        <v>98879</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>124885</v>
+        <v>124451</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.6459738058668905</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.5697938386668505</v>
+        <v>0.5712495387595077</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.721496015033252</v>
+        <v>0.7189854406268065</v>
       </c>
     </row>
     <row r="36">
@@ -5442,19 +5442,19 @@
         <v>5946</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2605</v>
+        <v>2365</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>14003</v>
+        <v>12791</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.03435017027032766</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.01504947507179813</v>
+        <v>0.01366529707053793</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.08089993381092446</v>
+        <v>0.07389556332824851</v>
       </c>
     </row>
     <row r="37">
@@ -5471,19 +5471,19 @@
         <v>47961</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>35897</v>
+        <v>36605</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>60335</v>
+        <v>60951</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2770849324805886</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2073861428908703</v>
+        <v>0.2114770681679966</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3485715802992476</v>
+        <v>0.3521293295950166</v>
       </c>
     </row>
     <row r="38">
@@ -5533,19 +5533,19 @@
         <v>8339</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>3769</v>
+        <v>3696</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>15468</v>
+        <v>14522</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.04041588493423153</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01826697031543388</v>
+        <v>0.0179126179342008</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07496986304944575</v>
+        <v>0.07038307221634789</v>
       </c>
     </row>
     <row r="40">
@@ -5583,19 +5583,19 @@
         <v>42916</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31935</v>
+        <v>31545</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>56591</v>
+        <v>55204</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2080058458176658</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1547823222378386</v>
+        <v>0.1528906212683798</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2742882432338029</v>
+        <v>0.2675656456378465</v>
       </c>
     </row>
     <row r="42">
@@ -5612,19 +5612,19 @@
         <v>110985</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>96764</v>
+        <v>96830</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>125728</v>
+        <v>125078</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.5379250803247089</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.468996872472432</v>
+        <v>0.469316058885495</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.6093825669101312</v>
+        <v>0.6062312662713313</v>
       </c>
     </row>
     <row r="43">
@@ -5641,19 +5641,19 @@
         <v>22192</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>15090</v>
+        <v>14610</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>32318</v>
+        <v>31334</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1075596831029051</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.07313974000535985</v>
+        <v>0.07081080759306617</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1566376752872733</v>
+        <v>0.1518701728438252</v>
       </c>
     </row>
     <row r="44">
@@ -5670,19 +5670,19 @@
         <v>21889</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>13363</v>
+        <v>14189</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>31415</v>
+        <v>31992</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1060935058204887</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.06476975897069162</v>
+        <v>0.06877015290445811</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1522644854037061</v>
+        <v>0.1550612076724199</v>
       </c>
     </row>
     <row r="45">
@@ -5732,19 +5732,19 @@
         <v>14257</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>8036</v>
+        <v>8152</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>23134</v>
+        <v>22827</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.02645899612332977</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.01491307197405998</v>
+        <v>0.01512857216868202</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.04293371430433566</v>
+        <v>0.04236375487122294</v>
       </c>
     </row>
     <row r="47">
@@ -5764,7 +5764,7 @@
         <v>0</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>6992</v>
+        <v>7145</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.003849746658149654</v>
@@ -5773,7 +5773,7 @@
         <v>0</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.0129757125917975</v>
+        <v>0.01326067266239849</v>
       </c>
     </row>
     <row r="48">
@@ -5790,19 +5790,19 @@
         <v>7050</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>2280</v>
+        <v>2714</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>14344</v>
+        <v>14842</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.01308346097356262</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.004231800151639434</v>
+        <v>0.00503763219905915</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.02662067893103364</v>
+        <v>0.02754431266222236</v>
       </c>
     </row>
     <row r="49">
@@ -5819,19 +5819,19 @@
         <v>439784</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>421198</v>
+        <v>420529</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>455772</v>
+        <v>457085</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.816187059356534</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7816950181210851</v>
+        <v>0.7804534432465051</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.8458605349881169</v>
+        <v>0.8482957212326681</v>
       </c>
     </row>
     <row r="50">
@@ -5848,19 +5848,19 @@
         <v>17978</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>11270</v>
+        <v>10851</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>28037</v>
+        <v>27213</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.03336461179933891</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.02091586816229957</v>
+        <v>0.0201384812460583</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.0520336296355273</v>
+        <v>0.05050350412447754</v>
       </c>
     </row>
     <row r="51">
@@ -5877,19 +5877,19 @@
         <v>57685</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>44082</v>
+        <v>45100</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>73817</v>
+        <v>72909</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.1070561250890851</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.08181178062942485</v>
+        <v>0.08370124263725345</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1369955242986626</v>
+        <v>0.1353107693213383</v>
       </c>
     </row>
     <row r="52">
@@ -5939,19 +5939,19 @@
         <v>6036</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>1975</v>
+        <v>2087</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>13883</v>
+        <v>14252</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.008911976211473344</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.002915995101148784</v>
+        <v>0.003081091656320298</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02049830190035697</v>
+        <v>0.02104399893591123</v>
       </c>
     </row>
     <row r="54">
@@ -5971,7 +5971,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>7045</v>
+        <v>7053</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.003009751043109824</v>
@@ -5980,7 +5980,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.01040278730095967</v>
+        <v>0.01041412387644705</v>
       </c>
     </row>
     <row r="55">
@@ -5997,19 +5997,19 @@
         <v>3702</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>1002</v>
+        <v>996</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>10956</v>
+        <v>10232</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.005466165176036147</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.001478967249760616</v>
+        <v>0.001471332802311705</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.01617643230041704</v>
+        <v>0.01510846730372398</v>
       </c>
     </row>
     <row r="56">
@@ -6026,19 +6026,19 @@
         <v>494278</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>467884</v>
+        <v>467522</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>516083</v>
+        <v>516096</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.7298156955223224</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.6908443813996906</v>
+        <v>0.690309987775651</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.7620111199941821</v>
+        <v>0.7620308066731342</v>
       </c>
     </row>
     <row r="57">
@@ -6055,19 +6055,19 @@
         <v>61851</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>48087</v>
+        <v>47930</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>78344</v>
+        <v>78177</v>
       </c>
       <c r="G57" s="6" t="n">
         <v>0.09132502994592703</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.07100197519888414</v>
+        <v>0.07076979526171157</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.1156764598001753</v>
+        <v>0.1154312897692408</v>
       </c>
     </row>
     <row r="58">
@@ -6084,19 +6084,19 @@
         <v>109359</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>89123</v>
+        <v>91058</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>129438</v>
+        <v>129392</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.1614713821011312</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1315925856422808</v>
+        <v>0.1344492993775506</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.1911187005477704</v>
+        <v>0.1910511978162763</v>
       </c>
     </row>
     <row r="59">
@@ -6146,19 +6146,19 @@
         <v>70309</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>54722</v>
+        <v>54825</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>87411</v>
+        <v>87694</v>
       </c>
       <c r="G60" s="6" t="n">
         <v>0.02528675594085847</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.01968077445875947</v>
+        <v>0.01971785495388031</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.03143779784809268</v>
+        <v>0.03153926126255833</v>
       </c>
     </row>
     <row r="61">
@@ -6175,19 +6175,19 @@
         <v>15082</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>8956</v>
+        <v>8151</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>24477</v>
+        <v>24484</v>
       </c>
       <c r="G61" s="6" t="n">
         <v>0.005424157250192557</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.003220907456164684</v>
+        <v>0.002931434963310799</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.008803070346362974</v>
+        <v>0.008805741757932297</v>
       </c>
     </row>
     <row r="62">
@@ -6204,19 +6204,19 @@
         <v>88776</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>72050</v>
+        <v>71112</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>110900</v>
+        <v>110436</v>
       </c>
       <c r="G62" s="6" t="n">
         <v>0.03192872119166387</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.02591305982305587</v>
+        <v>0.02557556922575314</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.03988549774130887</v>
+        <v>0.03971881986607136</v>
       </c>
     </row>
     <row r="63">
@@ -6233,19 +6233,19 @@
         <v>2079768</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>2037768</v>
+        <v>2030725</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>2126829</v>
+        <v>2126411</v>
       </c>
       <c r="G63" s="6" t="n">
         <v>0.7479953990775303</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.7328898575029141</v>
+        <v>0.730356967782291</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.7649209164230867</v>
+        <v>0.7647704876770547</v>
       </c>
     </row>
     <row r="64">
@@ -6262,19 +6262,19 @@
         <v>147136</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>122134</v>
+        <v>124699</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>168949</v>
+        <v>173656</v>
       </c>
       <c r="G64" s="6" t="n">
         <v>0.05291781149758652</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.04392579477087382</v>
+        <v>0.04484825069834276</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.06076293394245115</v>
+        <v>0.06245584852267722</v>
       </c>
     </row>
     <row r="65">
@@ -6291,19 +6291,19 @@
         <v>379385</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>345373</v>
+        <v>341357</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>414905</v>
+        <v>418505</v>
       </c>
       <c r="G65" s="6" t="n">
         <v>0.1364471550421682</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.1242143868614119</v>
+        <v>0.1227702307668294</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.149221846822495</v>
+        <v>0.1505166325289742</v>
       </c>
     </row>
     <row r="66">
@@ -6475,19 +6475,19 @@
         <v>2523</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>6649</v>
+        <v>6625</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0145738065785361</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004436524342516162</v>
+        <v>0.004405043418787352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03840738498673966</v>
+        <v>0.03827297424793209</v>
       </c>
     </row>
     <row r="5">
@@ -6528,7 +6528,7 @@
         <v>0</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2716</v>
+        <v>2882</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.002722783267927715</v>
@@ -6537,7 +6537,7 @@
         <v>0</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.01568737528229066</v>
+        <v>0.01664994313055</v>
       </c>
     </row>
     <row r="7">
@@ -6554,19 +6554,19 @@
         <v>167028</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>162164</v>
+        <v>162064</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>169956</v>
+        <v>170109</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9648822886943692</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9367829812234241</v>
+        <v>0.9362056765641406</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.981800004372305</v>
+        <v>0.9826829508737961</v>
       </c>
     </row>
     <row r="8">
@@ -6586,7 +6586,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2336</v>
+        <v>2377</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.002691990002575388</v>
@@ -6595,7 +6595,7 @@
         <v>0</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01349220157793099</v>
+        <v>0.01372949771180444</v>
       </c>
     </row>
     <row r="9">
@@ -6612,19 +6612,19 @@
         <v>2619</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>993</v>
+        <v>943</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>5833</v>
+        <v>5641</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.01512913145659158</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.005737645853339894</v>
+        <v>0.005446105701064154</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.03369702070255593</v>
+        <v>0.03258412328358646</v>
       </c>
     </row>
     <row r="10">
@@ -6674,19 +6674,19 @@
         <v>84673</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>70858</v>
+        <v>72228</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>100191</v>
+        <v>103291</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.2464456506549352</v>
+        <v>0.2464456506549353</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2062365006275484</v>
+        <v>0.2102230658847656</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2916110656252937</v>
+        <v>0.3006340312176126</v>
       </c>
     </row>
     <row r="12">
@@ -6703,19 +6703,19 @@
         <v>2140</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>687</v>
+        <v>683</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>6111</v>
+        <v>5700</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.006227239089256677</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.002000696116650092</v>
+        <v>0.001988880324874329</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.01778552803398794</v>
+        <v>0.01659061681435351</v>
       </c>
     </row>
     <row r="13">
@@ -6732,19 +6732,19 @@
         <v>1942</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5609</v>
+        <v>5507</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00565138934547918</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.001717063151956117</v>
+        <v>0.001719753011275133</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01632541509566489</v>
+        <v>0.01602720501701966</v>
       </c>
     </row>
     <row r="14">
@@ -6761,19 +6761,19 @@
         <v>189195</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>171139</v>
+        <v>170502</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>204387</v>
+        <v>203613</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5506628069800177</v>
+        <v>0.5506628069800178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4981119829526041</v>
+        <v>0.4962564814085688</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5948803647782857</v>
+        <v>0.5926281048632888</v>
       </c>
     </row>
     <row r="15">
@@ -6790,19 +6790,19 @@
         <v>10096</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5197</v>
+        <v>5264</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>17322</v>
+        <v>17082</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.02938475572835081</v>
+        <v>0.02938475572835082</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.01512524130887021</v>
+        <v>0.01532256447283292</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.05041820983883907</v>
+        <v>0.0497188612881636</v>
       </c>
     </row>
     <row r="16">
@@ -6819,19 +6819,19 @@
         <v>55532</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>44154</v>
+        <v>45167</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>68581</v>
+        <v>68546</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1616281582019604</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1285123962223654</v>
+        <v>0.1314613911585104</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1996102251798716</v>
+        <v>0.1995077562102743</v>
       </c>
     </row>
     <row r="17">
@@ -6881,19 +6881,19 @@
         <v>8219</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4190</v>
+        <v>3801</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>15208</v>
+        <v>14922</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.04483715958540872</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.02285847922455462</v>
+        <v>0.02073363542734228</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.08296533702055045</v>
+        <v>0.08140591342181372</v>
       </c>
     </row>
     <row r="19">
@@ -6931,19 +6931,19 @@
         <v>3445</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1246</v>
+        <v>1190</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>7091</v>
+        <v>7207</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.01879338959314812</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.006799353282989308</v>
+        <v>0.006491705752011887</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.03868142840527422</v>
+        <v>0.03931870270253898</v>
       </c>
     </row>
     <row r="21">
@@ -6960,19 +6960,19 @@
         <v>134539</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>123423</v>
+        <v>123776</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>144577</v>
+        <v>144077</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7339526945704535</v>
+        <v>0.7339526945704534</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.673311370318181</v>
+        <v>0.6752370519158726</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.7887094027181125</v>
+        <v>0.7859845099919868</v>
       </c>
     </row>
     <row r="22">
@@ -6989,19 +6989,19 @@
         <v>2490</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>674</v>
+        <v>677</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>7360</v>
+        <v>7851</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01358444330804669</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.003677494542410246</v>
+        <v>0.003690854218121345</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.04015030705576918</v>
+        <v>0.04282966117185043</v>
       </c>
     </row>
     <row r="23">
@@ -7018,19 +7018,19 @@
         <v>34614</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>26440</v>
+        <v>26754</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>43981</v>
+        <v>43892</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1888323129429429</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1442396029512323</v>
+        <v>0.1459499984907874</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2399301119645448</v>
+        <v>0.2394455100913978</v>
       </c>
     </row>
     <row r="24">
@@ -7080,19 +7080,19 @@
         <v>3065</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>804</v>
+        <v>655</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>7772</v>
+        <v>7777</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01228256235600191</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.003220695788803928</v>
+        <v>0.00262586822457792</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03114533661487241</v>
+        <v>0.03116732710056418</v>
       </c>
     </row>
     <row r="26">
@@ -7109,19 +7109,19 @@
         <v>6289</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2746</v>
+        <v>2413</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>13251</v>
+        <v>13069</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.02520340812418054</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01100380868335958</v>
+        <v>0.009669644844956962</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.05310128093020303</v>
+        <v>0.05237410875015831</v>
       </c>
     </row>
     <row r="27">
@@ -7138,19 +7138,19 @@
         <v>8106</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>4734</v>
+        <v>4532</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>13126</v>
+        <v>13379</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.03248315216603281</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.01897208028747504</v>
+        <v>0.01816272953514074</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.0526019800579922</v>
+        <v>0.05361551951907142</v>
       </c>
     </row>
     <row r="28">
@@ -7167,19 +7167,19 @@
         <v>141080</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>124811</v>
+        <v>124296</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>155672</v>
+        <v>154941</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.565377537974343</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.5001768834638159</v>
+        <v>0.4981157141220845</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.6238516980390548</v>
+        <v>0.6209258322086879</v>
       </c>
     </row>
     <row r="29">
@@ -7196,19 +7196,19 @@
         <v>11102</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>4932</v>
+        <v>5292</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>22634</v>
+        <v>23134</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.0444892613636188</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.01976330539876004</v>
+        <v>0.02120670417240991</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.09070551402918053</v>
+        <v>0.09270881925841623</v>
       </c>
     </row>
     <row r="30">
@@ -7225,19 +7225,19 @@
         <v>79892</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>65587</v>
+        <v>66298</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>96191</v>
+        <v>94743</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3201640780158231</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2628376126238051</v>
+        <v>0.2656870353633252</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3854821725143365</v>
+        <v>0.3796806466810743</v>
       </c>
     </row>
     <row r="31">
@@ -7287,19 +7287,19 @@
         <v>1527</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>3927</v>
+        <v>4538</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.01092056714044092</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.003051618346346317</v>
+        <v>0.003092663167547439</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.02809303006319424</v>
+        <v>0.03246452179393669</v>
       </c>
     </row>
     <row r="33">
@@ -7337,19 +7337,19 @@
         <v>9362</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6057</v>
+        <v>6246</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13493</v>
+        <v>13447</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>0.06696590241563251</v>
+        <v>0.06696590241563254</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.04332615950274171</v>
+        <v>0.04468220393693399</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.09651890084182813</v>
+        <v>0.0961872146589885</v>
       </c>
     </row>
     <row r="35">
@@ -7366,19 +7366,19 @@
         <v>122475</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>116749</v>
+        <v>116476</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>126976</v>
+        <v>126968</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>0.8760858182887475</v>
+        <v>0.8760858182887477</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.8351232738688728</v>
+        <v>0.8331730104197226</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.908278726141577</v>
+        <v>0.908224641894447</v>
       </c>
     </row>
     <row r="36">
@@ -7395,19 +7395,19 @@
         <v>1929</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5385</v>
+        <v>5373</v>
       </c>
       <c r="G36" s="6" t="n">
-        <v>0.0138004758995558</v>
+        <v>0.01380047589955581</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.003285021286752488</v>
+        <v>0.003258193063108307</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.03851871089361952</v>
+        <v>0.03843173611196216</v>
       </c>
     </row>
     <row r="37">
@@ -7424,19 +7424,19 @@
         <v>4505</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>2412</v>
+        <v>2341</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>7769</v>
+        <v>7918</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.03222723625562317</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.01725384308976617</v>
+        <v>0.01674874003201918</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.05557531266438872</v>
+        <v>0.05663837191301972</v>
       </c>
     </row>
     <row r="38">
@@ -7486,19 +7486,19 @@
         <v>5026</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>2007</v>
+        <v>2186</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>10255</v>
+        <v>10272</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.03579477326502253</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01429404782245993</v>
+        <v>0.0155671508066993</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.07303616472524077</v>
+        <v>0.07315734681255587</v>
       </c>
     </row>
     <row r="40">
@@ -7518,7 +7518,7 @@
         <v>0</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>4830</v>
+        <v>5400</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.009305674760439753</v>
@@ -7527,7 +7527,7 @@
         <v>0</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.03439580445821076</v>
+        <v>0.03846042152638401</v>
       </c>
     </row>
     <row r="41">
@@ -7547,7 +7547,7 @@
         <v>0</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2591</v>
+        <v>3289</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.003637263335137</v>
@@ -7556,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.01845383340542777</v>
+        <v>0.02342196290129387</v>
       </c>
     </row>
     <row r="42">
@@ -7573,19 +7573,19 @@
         <v>109191</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>99806</v>
+        <v>101255</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>116117</v>
+        <v>116878</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.7776557353993044</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.7108160073190615</v>
+        <v>0.7211314732367409</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.8269826708598732</v>
+        <v>0.8323970602559578</v>
       </c>
     </row>
     <row r="43">
@@ -7602,19 +7602,19 @@
         <v>9221</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>5317</v>
+        <v>5300</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>15487</v>
+        <v>15360</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.06566796723924746</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.03786528635480552</v>
+        <v>0.03774959796282471</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.1102944944466981</v>
+        <v>0.109392818913334</v>
       </c>
     </row>
     <row r="44">
@@ -7631,19 +7631,19 @@
         <v>15156</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>10041</v>
+        <v>9568</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>22911</v>
+        <v>22012</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1079385860008488</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.07151437283127107</v>
+        <v>0.06814006454733432</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1631681896698135</v>
+        <v>0.1567671525793426</v>
       </c>
     </row>
     <row r="45">
@@ -7693,19 +7693,19 @@
         <v>16220</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>9843</v>
+        <v>9931</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>24335</v>
+        <v>23985</v>
       </c>
       <c r="G46" s="6" t="n">
-        <v>0.03633211624525125</v>
+        <v>0.03633211624525124</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.02204756229292128</v>
+        <v>0.02224428151482124</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.05450809033310389</v>
+        <v>0.053725862121674</v>
       </c>
     </row>
     <row r="47">
@@ -7722,19 +7722,19 @@
         <v>2997</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>917</v>
+        <v>706</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>7831</v>
+        <v>7688</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.006712982499758406</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.002053778718525589</v>
+        <v>0.001582294754215318</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.01754060162086508</v>
+        <v>0.01722116656054412</v>
       </c>
     </row>
     <row r="48">
@@ -7751,19 +7751,19 @@
         <v>4112</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>1378</v>
+        <v>1418</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>8174</v>
+        <v>8383</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.009211233387519434</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.00308651473721087</v>
+        <v>0.003176580859249582</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.01830837868136844</v>
+        <v>0.01877832830196742</v>
       </c>
     </row>
     <row r="49">
@@ -7780,19 +7780,19 @@
         <v>363472</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>345697</v>
+        <v>347736</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>378548</v>
+        <v>378339</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.8141540834242555</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.7743406215742824</v>
+        <v>0.7789058873732836</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.8479240041196905</v>
+        <v>0.8474553184268867</v>
       </c>
     </row>
     <row r="50">
@@ -7809,19 +7809,19 @@
         <v>9064</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>4551</v>
+        <v>4662</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>15997</v>
+        <v>17307</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.02030355204558644</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.01019488364876266</v>
+        <v>0.01044357856252646</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.03583221572628088</v>
+        <v>0.03876648919721726</v>
       </c>
     </row>
     <row r="51">
@@ -7838,19 +7838,19 @@
         <v>50576</v>
       </c>
       <c r="E51" s="5" t="n">
-        <v>38550</v>
+        <v>38389</v>
       </c>
       <c r="F51" s="5" t="n">
-        <v>65867</v>
+        <v>64708</v>
       </c>
       <c r="G51" s="6" t="n">
         <v>0.113286032397629</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.08634915768811273</v>
+        <v>0.08598879632631549</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.1475390024764201</v>
+        <v>0.1449418203678838</v>
       </c>
     </row>
     <row r="52">
@@ -7900,19 +7900,19 @@
         <v>5226</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>2229</v>
+        <v>2108</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>10557</v>
+        <v>10869</v>
       </c>
       <c r="G53" s="6" t="n">
         <v>0.01237423162366118</v>
       </c>
       <c r="H53" s="6" t="n">
-        <v>0.005277686096639381</v>
+        <v>0.004990364079518028</v>
       </c>
       <c r="I53" s="6" t="n">
-        <v>0.02499791914614907</v>
+        <v>0.02573768466558202</v>
       </c>
     </row>
     <row r="54">
@@ -7932,7 +7932,7 @@
         <v>0</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>3100</v>
+        <v>3070</v>
       </c>
       <c r="G54" s="6" t="n">
         <v>0.001445536554069646</v>
@@ -7941,7 +7941,7 @@
         <v>0</v>
       </c>
       <c r="I54" s="6" t="n">
-        <v>0.007340174986298601</v>
+        <v>0.007270342058799545</v>
       </c>
     </row>
     <row r="55">
@@ -7958,19 +7958,19 @@
         <v>44210</v>
       </c>
       <c r="E55" s="5" t="n">
-        <v>34445</v>
+        <v>34352</v>
       </c>
       <c r="F55" s="5" t="n">
-        <v>54605</v>
+        <v>54583</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>0.1046842290920274</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.08156140154359584</v>
+        <v>0.08134169880350747</v>
       </c>
       <c r="I55" s="6" t="n">
-        <v>0.1293000117123887</v>
+        <v>0.1292463346692428</v>
       </c>
     </row>
     <row r="56">
@@ -7987,19 +7987,19 @@
         <v>264121</v>
       </c>
       <c r="E56" s="5" t="n">
-        <v>247710</v>
+        <v>246806</v>
       </c>
       <c r="F56" s="5" t="n">
-        <v>280630</v>
+        <v>281465</v>
       </c>
       <c r="G56" s="6" t="n">
         <v>0.6254131659142464</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.5865538211911668</v>
+        <v>0.5844130993114045</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.6645050597529418</v>
+        <v>0.6664835382235089</v>
       </c>
     </row>
     <row r="57">
@@ -8016,19 +8016,19 @@
         <v>18502</v>
       </c>
       <c r="E57" s="5" t="n">
-        <v>11790</v>
+        <v>12026</v>
       </c>
       <c r="F57" s="5" t="n">
-        <v>27270</v>
+        <v>27150</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.04381130346783887</v>
+        <v>0.04381130346783888</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.02791857874590095</v>
+        <v>0.02847639731783757</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.06457207262487361</v>
+        <v>0.06428836158454378</v>
       </c>
     </row>
     <row r="58">
@@ -8045,19 +8045,19 @@
         <v>89645</v>
       </c>
       <c r="E58" s="5" t="n">
-        <v>75956</v>
+        <v>74764</v>
       </c>
       <c r="F58" s="5" t="n">
-        <v>103899</v>
+        <v>104079</v>
       </c>
       <c r="G58" s="6" t="n">
         <v>0.2122715333481565</v>
       </c>
       <c r="H58" s="6" t="n">
-        <v>0.1798560291659774</v>
+        <v>0.1770340520780389</v>
       </c>
       <c r="I58" s="6" t="n">
-        <v>0.2460232113345</v>
+        <v>0.2464501917094688</v>
       </c>
     </row>
     <row r="59">
@@ -8107,19 +8107,19 @@
         <v>126478</v>
       </c>
       <c r="E60" s="5" t="n">
-        <v>107292</v>
+        <v>107872</v>
       </c>
       <c r="F60" s="5" t="n">
-        <v>147562</v>
+        <v>146003</v>
       </c>
       <c r="G60" s="6" t="n">
-        <v>0.06027111355547678</v>
+        <v>0.0602711135554768</v>
       </c>
       <c r="H60" s="6" t="n">
-        <v>0.05112818457171163</v>
+        <v>0.05140470134805887</v>
       </c>
       <c r="I60" s="6" t="n">
-        <v>0.07031817319941891</v>
+        <v>0.06957551722700483</v>
       </c>
     </row>
     <row r="61">
@@ -8136,19 +8136,19 @@
         <v>13343</v>
       </c>
       <c r="E61" s="5" t="n">
-        <v>8204</v>
+        <v>7743</v>
       </c>
       <c r="F61" s="5" t="n">
-        <v>21576</v>
+        <v>20622</v>
       </c>
       <c r="G61" s="6" t="n">
-        <v>0.006358224600480849</v>
+        <v>0.006358224600480851</v>
       </c>
       <c r="H61" s="6" t="n">
-        <v>0.003909278888543352</v>
+        <v>0.003689993479518078</v>
       </c>
       <c r="I61" s="6" t="n">
-        <v>0.01028174887156901</v>
+        <v>0.009826907985816829</v>
       </c>
     </row>
     <row r="62">
@@ -8165,19 +8165,19 @@
         <v>72158</v>
       </c>
       <c r="E62" s="5" t="n">
-        <v>60863</v>
+        <v>60257</v>
       </c>
       <c r="F62" s="5" t="n">
-        <v>86393</v>
+        <v>85296</v>
       </c>
       <c r="G62" s="6" t="n">
-        <v>0.0343856520752413</v>
+        <v>0.03438565207524131</v>
       </c>
       <c r="H62" s="6" t="n">
-        <v>0.02900333903817585</v>
+        <v>0.02871449201139544</v>
       </c>
       <c r="I62" s="6" t="n">
-        <v>0.04116907640605328</v>
+        <v>0.04064664315684325</v>
       </c>
     </row>
     <row r="63">
@@ -8194,19 +8194,19 @@
         <v>1491100</v>
       </c>
       <c r="E63" s="5" t="n">
-        <v>1453333</v>
+        <v>1453575</v>
       </c>
       <c r="F63" s="5" t="n">
-        <v>1529061</v>
+        <v>1528088</v>
       </c>
       <c r="G63" s="6" t="n">
-        <v>0.7105597057032631</v>
+        <v>0.710559705703263</v>
       </c>
       <c r="H63" s="6" t="n">
-        <v>0.6925622873899351</v>
+        <v>0.6926777495126158</v>
       </c>
       <c r="I63" s="6" t="n">
-        <v>0.7286491922959438</v>
+        <v>0.7281853964902747</v>
       </c>
     </row>
     <row r="64">
@@ -8223,19 +8223,19 @@
         <v>62870</v>
       </c>
       <c r="E64" s="5" t="n">
-        <v>48515</v>
+        <v>50070</v>
       </c>
       <c r="F64" s="5" t="n">
-        <v>80018</v>
+        <v>79898</v>
       </c>
       <c r="G64" s="6" t="n">
-        <v>0.02995957642981256</v>
+        <v>0.02995957642981257</v>
       </c>
       <c r="H64" s="6" t="n">
-        <v>0.02311883783990058</v>
+        <v>0.02386017405725543</v>
       </c>
       <c r="I64" s="6" t="n">
-        <v>0.03813136621100815</v>
+        <v>0.03807414864978555</v>
       </c>
     </row>
     <row r="65">
@@ -8252,19 +8252,19 @@
         <v>332538</v>
       </c>
       <c r="E65" s="5" t="n">
-        <v>305085</v>
+        <v>301300</v>
       </c>
       <c r="F65" s="5" t="n">
-        <v>359741</v>
+        <v>365981</v>
       </c>
       <c r="G65" s="6" t="n">
-        <v>0.1584657276357253</v>
+        <v>0.1584657276357254</v>
       </c>
       <c r="H65" s="6" t="n">
-        <v>0.1453830844438813</v>
+        <v>0.1435794621996855</v>
       </c>
       <c r="I65" s="6" t="n">
-        <v>0.1714287999777393</v>
+        <v>0.17440229013168</v>
       </c>
     </row>
     <row r="66">
